--- a/ig/ch-epreg/StructureDefinition-ch-epreg-document.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -500,7 +500,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -592,7 +592,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
